--- a/Location_based_analysis/under_wind/lps_base.xlsx
+++ b/Location_based_analysis/under_wind/lps_base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rainfall\Location_based_analysis\under_wind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1271C820-591F-4EF7-9666-D3546D5BC8D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F850CE-41DE-4318-905A-EB30FB24E86F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -389,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O91" sqref="O91"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L102" sqref="L102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2089,6 +2089,29 @@
         <v>2.3213445838691991</v>
       </c>
     </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B101" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
